--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118962.9681772964</v>
+        <v>20856921.92773875</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118962.9681772964</v>
+        <v>20856921.92773875</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9242.007331967841</v>
+        <v>1054137.461002078</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242.007331967841</v>
+        <v>1054137.461002078</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265262997.019806</v>
+        <v>50736953.37417868</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9635.444574038494</v>
+        <v>1060444.144097121</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18749.47879915392</v>
+        <v>2099658.146586507</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27877.894436678</v>
+        <v>3134685.143856307</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37258.01764110696</v>
+        <v>4157100.112487052</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46511.14651641644</v>
+        <v>5194499.317635907</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55780.36239065974</v>
+        <v>6230872.791729633</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65033.84719879847</v>
+        <v>7267246.265823356</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74232.2573028997</v>
+        <v>8303619.739917079</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83627.27777538894</v>
+        <v>9340592.619263625</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92546.87231625064</v>
+        <v>10374297.95915131</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101592.8538457847</v>
+        <v>11408322.90680443</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110358.5392044044</v>
+        <v>12441812.98508703</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119241.4058723968</v>
+        <v>13475367.63275535</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128487.9639023021</v>
+        <v>14445941.68946644</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138569.6173866597</v>
+        <v>15305409.58705204</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>49.00000000005531</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>343.0000000000865</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
